--- a/tests/test_files/aaa_2.xlsx
+++ b/tests/test_files/aaa_2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiro\Documents\git\umya-spreadsheet\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A21D2E-CE05-42F7-9B7D-FA16D77D6CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E51AD-23A2-4D5C-A1E4-EB0154A52B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="NUMBER">Sheet1!$B$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>←cellIs:21以上で赤</t>
     <rPh sb="10" eb="12">
@@ -56,6 +59,16 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←名前定義を参照</t>
+    <rPh sb="1" eb="5">
+      <t>ナマエテイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,7 +119,38 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -407,16 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:13">
       <c r="B2">
         <v>20</v>
       </c>
@@ -435,8 +481,14 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>21</v>
       </c>
@@ -446,8 +498,11 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="L3">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>22</v>
       </c>
@@ -457,36 +512,50 @@
       <c r="H4">
         <v>3</v>
       </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:13">
       <c r="E5">
         <v>4</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:13">
       <c r="E6">
         <v>5</v>
       </c>
       <c r="H6">
         <v>5</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E8">
-    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H2&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>NUMBER</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
